--- a/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_3/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>141.0775753793047</v>
       </c>
       <c r="H30" t="n">
-        <v>56.40856043356645</v>
+        <v>56.40856043356644</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>160.5472032142679</v>
       </c>
       <c r="H36" t="n">
-        <v>58.45180363013957</v>
+        <v>58.45180363013955</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.642494282817084</v>
+        <v>1.642494282816889</v>
       </c>
       <c r="H53" t="n">
-        <v>133.9788800633462</v>
+        <v>133.9788800633461</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>180.3986207628849</v>
+        <v>180.3986207628851</v>
       </c>
       <c r="H54" t="n">
-        <v>193.8898198857671</v>
+        <v>193.8898198857674</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>130.6219236601696</v>
+        <v>130.6219236601697</v>
       </c>
       <c r="H55" t="n">
-        <v>186.2143052678576</v>
+        <v>186.2143052678578</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>92.54232594494327</v>
+        <v>92.54232594494309</v>
       </c>
       <c r="H59" t="n">
-        <v>90.10173552071335</v>
+        <v>90.10173552071326</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-31.21566188992514</v>
+        <v>-31.21566188992473</v>
       </c>
       <c r="H60" t="n">
-        <v>93.65628677427564</v>
+        <v>93.65628677427577</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-2.199354026386821</v>
+        <v>-2.199354026386651</v>
       </c>
       <c r="H61" t="n">
-        <v>85.39458646734342</v>
+        <v>85.39458646734349</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>214.7146682947751</v>
+        <v>214.7146682947753</v>
       </c>
       <c r="H62" t="n">
-        <v>70.32259529938771</v>
+        <v>70.32259529938781</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>100.2664174330879</v>
+        <v>100.2664174330877</v>
       </c>
       <c r="H65" t="n">
-        <v>59.55946053802136</v>
+        <v>59.55946053802124</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>79.25809779288869</v>
+        <v>79.25809779288907</v>
       </c>
       <c r="H66" t="n">
-        <v>59.1625137506522</v>
+        <v>59.16251375065244</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>224.5096216414698</v>
+        <v>224.50962164147</v>
       </c>
       <c r="H67" t="n">
-        <v>56.15853066631039</v>
+        <v>56.15853066631052</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>50.73936047875859</v>
+        <v>50.73936047875878</v>
       </c>
       <c r="H68" t="n">
-        <v>53.4529850676258</v>
+        <v>53.45298506762593</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>85.41865881808268</v>
+        <v>85.41865881808249</v>
       </c>
       <c r="H71" t="n">
-        <v>61.66178254306328</v>
+        <v>61.66178254306317</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>244.251939839281</v>
+        <v>244.2519398392814</v>
       </c>
       <c r="H72" t="n">
-        <v>60.43780693969001</v>
+        <v>60.43780693969025</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>209.4749863064075</v>
+        <v>209.4749863064077</v>
       </c>
       <c r="H73" t="n">
-        <v>60.83799784572903</v>
+        <v>60.83799784572914</v>
       </c>
     </row>
     <row r="74">
@@ -2658,7 +2658,7 @@
         <v>91.7578550375836</v>
       </c>
       <c r="H74" t="n">
-        <v>63.70379979062456</v>
+        <v>63.70379979062454</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>56.39030418149351</v>
+        <v>56.39030418149333</v>
       </c>
       <c r="H75" t="n">
-        <v>65.69315968985335</v>
+        <v>65.69315968985323</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>253.2817700235529</v>
+        <v>253.2817700235532</v>
       </c>
       <c r="H76" t="n">
-        <v>86.86129304406548</v>
+        <v>86.86129304406572</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>33.62486663483697</v>
+        <v>33.62486663483679</v>
       </c>
       <c r="H78" t="n">
-        <v>118.4725337165657</v>
+        <v>118.4725337165656</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>194.1785004354405</v>
+        <v>194.1785004354403</v>
       </c>
       <c r="H79" t="n">
-        <v>183.6195661055092</v>
+        <v>183.619566105509</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>37.29037369614003</v>
+        <v>37.2903736961402</v>
       </c>
       <c r="H81" t="n">
-        <v>97.07882799569084</v>
+        <v>97.07882799569093</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>84.17779916183898</v>
+        <v>84.17779916183878</v>
       </c>
       <c r="H82" t="n">
-        <v>67.82325024014912</v>
+        <v>67.82325024014902</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>-7.288995987577098</v>
+        <v>-7.288995987577274</v>
       </c>
       <c r="H83" t="n">
-        <v>99.44768527606701</v>
+        <v>99.44768527606693</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>46.02846186149356</v>
+        <v>46.02846186149373</v>
       </c>
       <c r="H84" t="n">
-        <v>97.05843522816086</v>
+        <v>97.05843522816095</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>67.63648432995095</v>
+        <v>67.6364843299513</v>
       </c>
       <c r="H85" t="n">
-        <v>119.2388397786705</v>
+        <v>119.2388397786706</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.367791483040905</v>
+        <v>5.36779148304072</v>
       </c>
       <c r="H87" t="n">
-        <v>82.14178544693334</v>
+        <v>82.14178544693326</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>99.05939112049127</v>
+        <v>99.05939112049109</v>
       </c>
       <c r="H88" t="n">
-        <v>72.30409528125682</v>
+        <v>72.30409528125672</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>105.9530729393631</v>
+        <v>105.9530729393633</v>
       </c>
       <c r="H89" t="n">
-        <v>66.45121219243435</v>
+        <v>66.45121219243445</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>63.30456218958539</v>
+        <v>63.30456218958521</v>
       </c>
       <c r="H90" t="n">
-        <v>78.3298478558235</v>
+        <v>78.32984785582342</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>84.4923627858587</v>
+        <v>84.49236278585906</v>
       </c>
       <c r="H91" t="n">
-        <v>82.13905250342609</v>
+        <v>82.13905250342627</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>82.37521079530637</v>
+        <v>82.37521079530676</v>
       </c>
       <c r="H92" t="n">
-        <v>63.65240416070812</v>
+        <v>63.65240416070831</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>82.14828225411968</v>
+        <v>82.14828225411986</v>
       </c>
       <c r="H93" t="n">
-        <v>71.91783681466114</v>
+        <v>71.91783681466123</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>60.72996288253844</v>
+        <v>60.72996288253817</v>
       </c>
       <c r="H94" t="n">
-        <v>53.95990595543579</v>
+        <v>53.95990595543559</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>99.12848889822271</v>
+        <v>99.12848889822308</v>
       </c>
       <c r="H95" t="n">
-        <v>56.96067575900491</v>
+        <v>56.96067575900518</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>73.78042467891203</v>
+        <v>73.78042467891183</v>
       </c>
       <c r="H97" t="n">
-        <v>57.91037239726996</v>
+        <v>57.91037239726985</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>99.5274386243038</v>
+        <v>99.5274386243036</v>
       </c>
       <c r="H98" t="n">
-        <v>56.93445849967212</v>
+        <v>56.934458499672</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>94.51831206287063</v>
+        <v>94.51831206287099</v>
       </c>
       <c r="H99" t="n">
-        <v>55.43370316062862</v>
+        <v>55.43370316062889</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>100.6516254564013</v>
+        <v>100.6516254564015</v>
       </c>
       <c r="H101" t="n">
-        <v>55.55711774578594</v>
+        <v>55.55711774578607</v>
       </c>
     </row>
   </sheetData>
